--- a/Essay/Reference Manager.xlsx
+++ b/Essay/Reference Manager.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Desktop\Active_Constraints\Essay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B1F05E-5F40-426E-8AFA-D27D566A15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD7864-DF2A-4001-97B9-317BFFF6AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{04A67FA2-844F-4902-A542-C77338D125E4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Title</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Panesar</t>
   </si>
   <si>
-    <t>Heidegger</t>
-  </si>
-  <si>
     <t>Robot-Assisted Minimally Invasive Surgery—Surgical Robotics in the Data Age</t>
   </si>
   <si>
@@ -257,6 +254,21 @@
   </si>
   <si>
     <t>Experimental study of orthopedic surgical skills - Nice protocol, no VFs</t>
+  </si>
+  <si>
+    <t>Role of AI in medicine and definition of autonomous surgery</t>
+  </si>
+  <si>
+    <t>Haidegger</t>
+  </si>
+  <si>
+    <t>RAMIS overview and principles + Levels of autonomy + Role of Haptics + Training</t>
+  </si>
+  <si>
+    <t>Clinical areas of application of surgical robots (old paper, 2001)</t>
+  </si>
+  <si>
+    <t>Meh</t>
   </si>
 </sst>
 </file>
@@ -750,7 +762,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -808,7 +820,7 @@
         <v>2020</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -821,94 +833,106 @@
       <c r="C4" s="5">
         <v>2019</v>
       </c>
+      <c r="D4" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>2022</v>
       </c>
+      <c r="D5" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>2001</v>
       </c>
+      <c r="D6" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <v>2015</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <v>2011</v>
       </c>
+      <c r="D8" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C9" s="5">
         <v>2006</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="C10" s="5">
         <v>2008</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +946,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -954,115 +978,115 @@
     </row>
     <row r="2" spans="1:5" ht="31.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5">
         <v>2014</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5">
         <v>2015</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="C4" s="5">
         <v>2016</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="C5" s="5">
         <v>2009</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="C6" s="5">
         <v>2018</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>2014</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>2017</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5">
         <v>2018</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1112,7 +1136,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1144,102 +1168,102 @@
     </row>
     <row r="2" spans="1:5" ht="16.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="C2" s="17">
         <v>2014</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>2016</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="5">
         <v>2008</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="C6" s="5">
         <v>2004</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="5">
         <v>1986</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5">
         <v>2018</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">

--- a/Essay/Reference Manager.xlsx
+++ b/Essay/Reference Manager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Desktop\Active_Constraints\Essay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD7864-DF2A-4001-97B9-317BFFF6AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC29991-4EBD-4D6C-8DEA-894A2825DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{04A67FA2-844F-4902-A542-C77338D125E4}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{04A67FA2-844F-4902-A542-C77338D125E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -946,7 +946,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>

--- a/Essay/Reference Manager.xlsx
+++ b/Essay/Reference Manager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Desktop\Active_Constraints\Essay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC29991-4EBD-4D6C-8DEA-894A2825DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A628644-A3EA-4DE2-9188-F9E70630B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{04A67FA2-844F-4902-A542-C77338D125E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{04A67FA2-844F-4902-A542-C77338D125E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>Lack of force feedback causes surgical errors and intraoperative injuries</t>
   </si>
   <si>
-    <t>Kapoort</t>
-  </si>
-  <si>
     <t>A Constrained Optimization Approach to Virtual Fixtures for Multi-Handed Tasks</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>Meh</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
   </si>
 </sst>
 </file>
@@ -313,12 +313,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,6 +771,190 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17" style="4" customWidth="1"/>
+    <col min="2" max="2" width="89.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2001</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2011</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2006</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2008</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C018A9-1787-469D-A492-DFA4BDC4E312}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -792,190 +985,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2021</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2001</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2015</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2011</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2006</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2008</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2007</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C018A9-1787-469D-A492-DFA4BDC4E312}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17" style="4" customWidth="1"/>
-    <col min="2" max="2" width="89.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5" customWidth="1"/>
-    <col min="4" max="4" width="90.21875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" ht="31.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>25</v>
@@ -1044,7 +1053,7 @@
         <v>2018</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -1136,7 +1145,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
